--- a/results_final/ei_LH.xlsx
+++ b/results_final/ei_LH.xlsx
@@ -611,97 +611,97 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.560826639597812</v>
+        <v>1.560826639597811</v>
       </c>
       <c r="C3">
-        <v>1.242580578481868</v>
+        <v>1.242580578481867</v>
       </c>
       <c r="D3">
-        <v>1.035381677566722</v>
+        <v>1.03538167756672</v>
       </c>
       <c r="E3">
-        <v>0.8947901743815299</v>
+        <v>0.8947901743815282</v>
       </c>
       <c r="F3">
-        <v>0.7961919668155265</v>
+        <v>0.7961919668155247</v>
       </c>
       <c r="G3">
-        <v>0.7251954313353407</v>
+        <v>0.7251954313353389</v>
       </c>
       <c r="H3">
-        <v>0.67298420868001</v>
+        <v>0.6729842086800082</v>
       </c>
       <c r="I3">
-        <v>0.6339349929130986</v>
+        <v>0.6339349929130969</v>
       </c>
       <c r="J3">
-        <v>0.604333412798196</v>
+        <v>0.6043334127981942</v>
       </c>
       <c r="K3">
-        <v>0.5816505076086831</v>
+        <v>0.5816505076086813</v>
       </c>
       <c r="L3">
-        <v>0.5641187246693556</v>
+        <v>0.5641187246693539</v>
       </c>
       <c r="M3">
-        <v>0.5504745417274339</v>
+        <v>0.5504745417274322</v>
       </c>
       <c r="N3">
-        <v>0.5397971871169152</v>
+        <v>0.5397971871169133</v>
       </c>
       <c r="O3">
-        <v>0.5314046128146768</v>
+        <v>0.5314046128146749</v>
       </c>
       <c r="P3">
-        <v>0.5247846002324964</v>
+        <v>0.5247846002324945</v>
       </c>
       <c r="Q3">
-        <v>0.5195480175619123</v>
+        <v>0.5195480175619104</v>
       </c>
       <c r="R3">
-        <v>0.5153963990018089</v>
+        <v>0.5153963990018069</v>
       </c>
       <c r="S3">
-        <v>0.5120990028135167</v>
+        <v>0.5120990028135147</v>
       </c>
       <c r="T3">
-        <v>0.5094762815006209</v>
+        <v>0.5094762815006189</v>
       </c>
       <c r="U3">
-        <v>0.5073877790129934</v>
+        <v>0.5073877790129914</v>
       </c>
       <c r="V3">
-        <v>0.5057231429351027</v>
+        <v>0.5057231429351007</v>
       </c>
       <c r="W3">
-        <v>0.5043953670929429</v>
+        <v>0.5043953670929409</v>
       </c>
       <c r="X3">
-        <v>0.5033356568327217</v>
+        <v>0.5033356568327197</v>
       </c>
       <c r="Y3">
-        <v>0.5024894918571955</v>
+        <v>0.5024894918571935</v>
       </c>
       <c r="Z3">
-        <v>0.5018135841918964</v>
+        <v>0.5018135841918944</v>
       </c>
       <c r="AA3">
-        <v>0.5012735127247954</v>
+        <v>0.5012735127247934</v>
       </c>
       <c r="AB3">
-        <v>0.5008418740783444</v>
+        <v>0.5008418740783424</v>
       </c>
       <c r="AC3">
-        <v>0.5004968307841128</v>
+        <v>0.5004968307841108</v>
       </c>
       <c r="AD3">
-        <v>0.5002209673074348</v>
+        <v>0.5002209673074328</v>
       </c>
       <c r="AE3">
-        <v>0.5000003860062808</v>
+        <v>0.5000003860062787</v>
       </c>
       <c r="AF3">
-        <v>0.4998239910012653</v>
+        <v>0.4998239910012632</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.078760376804843</v>
+        <v>3.078760376804845</v>
       </c>
       <c r="C6">
         <v>1.815660816821453</v>
@@ -914,88 +914,88 @@
         <v>1.19004062526131</v>
       </c>
       <c r="E6">
-        <v>0.8487571393521516</v>
+        <v>0.8487571393521512</v>
       </c>
       <c r="F6">
-        <v>0.6476804119662832</v>
+        <v>0.6476804119662828</v>
       </c>
       <c r="G6">
-        <v>0.5217021429003804</v>
+        <v>0.5217021429003801</v>
       </c>
       <c r="H6">
-        <v>0.4388055449614804</v>
+        <v>0.4388055449614802</v>
       </c>
       <c r="I6">
-        <v>0.3820777045233111</v>
+        <v>0.3820777045233109</v>
       </c>
       <c r="J6">
-        <v>0.3420230434321896</v>
+        <v>0.3420230434321894</v>
       </c>
       <c r="K6">
-        <v>0.3130244809960925</v>
+        <v>0.3130244809960924</v>
       </c>
       <c r="L6">
-        <v>0.2916061329997276</v>
+        <v>0.2916061329997274</v>
       </c>
       <c r="M6">
-        <v>0.2755315487747891</v>
+        <v>0.275531548774789</v>
       </c>
       <c r="N6">
-        <v>0.2633122578854182</v>
+        <v>0.263312257885418</v>
       </c>
       <c r="O6">
-        <v>0.2539281637465369</v>
+        <v>0.2539281637465367</v>
       </c>
       <c r="P6">
-        <v>0.2466622610159812</v>
+        <v>0.246662261015981</v>
       </c>
       <c r="Q6">
-        <v>0.2409995196238661</v>
+        <v>0.240999519623866</v>
       </c>
       <c r="R6">
-        <v>0.2365630723581335</v>
+        <v>0.2365630723581334</v>
       </c>
       <c r="S6">
-        <v>0.2330727884156587</v>
+        <v>0.2330727884156586</v>
       </c>
       <c r="T6">
-        <v>0.2303176751050247</v>
+        <v>0.2303176751050246</v>
       </c>
       <c r="U6">
-        <v>0.228137051759836</v>
+        <v>0.2281370517598359</v>
       </c>
       <c r="V6">
-        <v>0.2264074275489341</v>
+        <v>0.2264074275489339</v>
       </c>
       <c r="W6">
-        <v>0.2250331744454499</v>
+        <v>0.2250331744454498</v>
       </c>
       <c r="X6">
-        <v>0.2239397802584334</v>
+        <v>0.2239397802584332</v>
       </c>
       <c r="Y6">
-        <v>0.2230688912203886</v>
+        <v>0.2230688912203884</v>
       </c>
       <c r="Z6">
-        <v>0.2223746191461386</v>
+        <v>0.2223746191461385</v>
       </c>
       <c r="AA6">
-        <v>0.2218207576066826</v>
+        <v>0.2218207576066824</v>
       </c>
       <c r="AB6">
-        <v>0.2213786617698582</v>
+        <v>0.2213786617698581</v>
       </c>
       <c r="AC6">
-        <v>0.221025619584724</v>
+        <v>0.2210256195847239</v>
       </c>
       <c r="AD6">
-        <v>0.2207435912481839</v>
+        <v>0.2207435912481837</v>
       </c>
       <c r="AE6">
-        <v>0.2205182277057494</v>
+        <v>0.2205182277057492</v>
       </c>
       <c r="AF6">
-        <v>0.2203381025408133</v>
+        <v>0.2203381025408132</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1208,88 +1208,88 @@
         <v>1.223510191753203</v>
       </c>
       <c r="E9">
-        <v>1.004982055086425</v>
+        <v>1.004982055086426</v>
       </c>
       <c r="F9">
-        <v>0.858615807305801</v>
+        <v>0.8586158073058014</v>
       </c>
       <c r="G9">
-        <v>0.7570269450826629</v>
+        <v>0.7570269450826633</v>
       </c>
       <c r="H9">
-        <v>0.6844808531494364</v>
+        <v>0.6844808531494369</v>
       </c>
       <c r="I9">
-        <v>0.6314824385329616</v>
+        <v>0.6314824385329619</v>
       </c>
       <c r="J9">
-        <v>0.5920539131445606</v>
+        <v>0.5920539131445609</v>
       </c>
       <c r="K9">
-        <v>0.562291137835908</v>
+        <v>0.5622911378359084</v>
       </c>
       <c r="L9">
-        <v>0.5395618374796122</v>
+        <v>0.5395618374796126</v>
       </c>
       <c r="M9">
-        <v>0.5220417225313718</v>
+        <v>0.5220417225313723</v>
       </c>
       <c r="N9">
-        <v>0.5084361309501912</v>
+        <v>0.5084361309501917</v>
       </c>
       <c r="O9">
-        <v>0.4978074114442595</v>
+        <v>0.49780741144426</v>
       </c>
       <c r="P9">
-        <v>0.4894646373629478</v>
+        <v>0.4894646373629483</v>
       </c>
       <c r="Q9">
-        <v>0.4828911992950081</v>
+        <v>0.4828911992950086</v>
       </c>
       <c r="R9">
-        <v>0.4776960678001191</v>
+        <v>0.4776960678001196</v>
       </c>
       <c r="S9">
-        <v>0.4735802332579686</v>
+        <v>0.4735802332579691</v>
       </c>
       <c r="T9">
-        <v>0.4703131130225931</v>
+        <v>0.4703131130225936</v>
       </c>
       <c r="U9">
-        <v>0.4677156524690498</v>
+        <v>0.4677156524690503</v>
       </c>
       <c r="V9">
-        <v>0.4656480164799389</v>
+        <v>0.4656480164799394</v>
       </c>
       <c r="W9">
-        <v>0.4640004907348331</v>
+        <v>0.4640004907348336</v>
       </c>
       <c r="X9">
-        <v>0.4626866681316035</v>
+        <v>0.462686668131604</v>
       </c>
       <c r="Y9">
-        <v>0.4616382890295525</v>
+        <v>0.461638289029553</v>
       </c>
       <c r="Z9">
-        <v>0.4608012963455336</v>
+        <v>0.4608012963455341</v>
       </c>
       <c r="AA9">
-        <v>0.4601327949626661</v>
+        <v>0.4601327949626666</v>
       </c>
       <c r="AB9">
-        <v>0.4595986921940004</v>
+        <v>0.4595986921940009</v>
       </c>
       <c r="AC9">
-        <v>0.4591718563877011</v>
+        <v>0.4591718563877016</v>
       </c>
       <c r="AD9">
-        <v>0.4588306731744223</v>
+        <v>0.4588306731744228</v>
       </c>
       <c r="AE9">
-        <v>0.458557909142125</v>
+        <v>0.4585579091421255</v>
       </c>
       <c r="AF9">
-        <v>0.4583398146702074</v>
+        <v>0.4583398146702079</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.9678782929456792</v>
+        <v>0.9678782929456795</v>
       </c>
       <c r="D10">
-        <v>0.7155393670812378</v>
+        <v>0.7155393670812381</v>
       </c>
       <c r="E10">
-        <v>0.5619319926189332</v>
+        <v>0.5619319926189336</v>
       </c>
       <c r="F10">
-        <v>0.4631524220048892</v>
+        <v>0.4631524220048895</v>
       </c>
       <c r="G10">
-        <v>0.3967857659995483</v>
+        <v>0.3967857659995486</v>
       </c>
       <c r="H10">
-        <v>0.3506079827101897</v>
+        <v>0.35060798271019</v>
       </c>
       <c r="I10">
-        <v>0.3175662733332021</v>
+        <v>0.3175662733332024</v>
       </c>
       <c r="J10">
-        <v>0.2933894079127449</v>
+        <v>0.2933894079127452</v>
       </c>
       <c r="K10">
-        <v>0.2753800517135244</v>
+        <v>0.2753800517135247</v>
       </c>
       <c r="L10">
-        <v>0.2617718331641982</v>
+        <v>0.2617718331641984</v>
       </c>
       <c r="M10">
-        <v>0.2513710528038665</v>
+        <v>0.2513710528038668</v>
       </c>
       <c r="N10">
-        <v>0.2433487635092203</v>
+        <v>0.2433487635092206</v>
       </c>
       <c r="O10">
-        <v>0.2371156656557307</v>
+        <v>0.237115665655731</v>
       </c>
       <c r="P10">
-        <v>0.2322443357869446</v>
+        <v>0.2322443357869449</v>
       </c>
       <c r="Q10">
-        <v>0.228419426725245</v>
+        <v>0.2284194267252453</v>
       </c>
       <c r="R10">
-        <v>0.225404904983881</v>
+        <v>0.2254049049838813</v>
       </c>
       <c r="S10">
-        <v>0.2230219570666797</v>
+        <v>0.22302195706668</v>
       </c>
       <c r="T10">
-        <v>0.2211337499264784</v>
+        <v>0.2211337499264787</v>
       </c>
       <c r="U10">
-        <v>0.2196347009614059</v>
+        <v>0.2196347009614062</v>
       </c>
       <c r="V10">
-        <v>0.2184427816991471</v>
+        <v>0.2184427816991474</v>
       </c>
       <c r="W10">
-        <v>0.2174939051805207</v>
+        <v>0.2174939051805209</v>
       </c>
       <c r="X10">
-        <v>0.2167377724865104</v>
+        <v>0.2167377724865107</v>
       </c>
       <c r="Y10">
-        <v>0.2161347594689363</v>
+        <v>0.2161347594689366</v>
       </c>
       <c r="Z10">
-        <v>0.2156535572355371</v>
+        <v>0.2156535572355374</v>
       </c>
       <c r="AA10">
-        <v>0.2152693669341032</v>
+        <v>0.2152693669341035</v>
       </c>
       <c r="AB10">
-        <v>0.2149625075492073</v>
+        <v>0.2149625075492076</v>
       </c>
       <c r="AC10">
-        <v>0.2147173350121463</v>
+        <v>0.2147173350121466</v>
       </c>
       <c r="AD10">
-        <v>0.2145213983300947</v>
+        <v>0.214521398330095</v>
       </c>
       <c r="AE10">
-        <v>0.2143647777273613</v>
+        <v>0.2143647777273616</v>
       </c>
       <c r="AF10">
-        <v>0.2142395635794753</v>
+        <v>0.2142395635794756</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.507308620165567</v>
+        <v>1.507308620165566</v>
       </c>
       <c r="C11">
         <v>1.365761454906526</v>
       </c>
       <c r="D11">
-        <v>1.262155856542697</v>
+        <v>1.262155856542698</v>
       </c>
       <c r="E11">
-        <v>1.184959466619555</v>
+        <v>1.184959466619556</v>
       </c>
       <c r="F11">
-        <v>1.126615965306472</v>
+        <v>1.126615965306473</v>
       </c>
       <c r="G11">
-        <v>1.082016357987972</v>
+        <v>1.082016357987973</v>
       </c>
       <c r="H11">
-        <v>1.047611281602312</v>
+        <v>1.047611281602314</v>
       </c>
       <c r="I11">
-        <v>1.020876575302833</v>
+        <v>1.020876575302834</v>
       </c>
       <c r="J11">
-        <v>0.9999808805242901</v>
+        <v>0.9999808805242916</v>
       </c>
       <c r="K11">
-        <v>0.9835726923244899</v>
+        <v>0.9835726923244912</v>
       </c>
       <c r="L11">
-        <v>0.970640203193871</v>
+        <v>0.9706402031938723</v>
       </c>
       <c r="M11">
-        <v>0.9604167503182927</v>
+        <v>0.960416750318294</v>
       </c>
       <c r="N11">
-        <v>0.9523155725655735</v>
+        <v>0.9523155725655749</v>
       </c>
       <c r="O11">
-        <v>0.9458838585530253</v>
+        <v>0.9458838585530266</v>
       </c>
       <c r="P11">
-        <v>0.9407697770110058</v>
+        <v>0.9407697770110072</v>
       </c>
       <c r="Q11">
-        <v>0.9366984270724069</v>
+        <v>0.9366984270724082</v>
       </c>
       <c r="R11">
-        <v>0.9334540368242473</v>
+        <v>0.9334540368242487</v>
       </c>
       <c r="S11">
-        <v>0.9308666174340688</v>
+        <v>0.9308666174340702</v>
       </c>
       <c r="T11">
-        <v>0.9288018467221619</v>
+        <v>0.9288018467221633</v>
       </c>
       <c r="U11">
-        <v>0.9271533281701838</v>
+        <v>0.9271533281701851</v>
       </c>
       <c r="V11">
-        <v>0.9258366202508862</v>
+        <v>0.9258366202508875</v>
       </c>
       <c r="W11">
-        <v>0.9247846003987238</v>
+        <v>0.9247846003987251</v>
       </c>
       <c r="X11">
-        <v>0.9239438452707394</v>
+        <v>0.9239438452707407</v>
       </c>
       <c r="Y11">
-        <v>0.9232717915415612</v>
+        <v>0.9232717915415626</v>
       </c>
       <c r="Z11">
-        <v>0.9227345005365872</v>
+        <v>0.9227345005365886</v>
       </c>
       <c r="AA11">
-        <v>0.9223048928654849</v>
+        <v>0.9223048928654862</v>
       </c>
       <c r="AB11">
-        <v>0.9219613507454419</v>
+        <v>0.9219613507454433</v>
       </c>
       <c r="AC11">
-        <v>0.92168660918528</v>
+        <v>0.9216866091852813</v>
       </c>
       <c r="AD11">
-        <v>0.9214668748862438</v>
+        <v>0.9214668748862451</v>
       </c>
       <c r="AE11">
-        <v>0.9212911251652902</v>
+        <v>0.9212911251652915</v>
       </c>
       <c r="AF11">
-        <v>0.9211505495235426</v>
+        <v>0.9211505495235439</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,7 +1496,7 @@
         <v>2.434219760368954</v>
       </c>
       <c r="C12">
-        <v>2.071510060701156</v>
+        <v>2.071510060701155</v>
       </c>
       <c r="D12">
         <v>1.820660027932638</v>
@@ -1505,19 +1505,19 @@
         <v>1.642034607278481</v>
       </c>
       <c r="F12">
-        <v>1.511837330532379</v>
+        <v>1.511837330532378</v>
       </c>
       <c r="G12">
-        <v>1.415152594240687</v>
+        <v>1.415152594240686</v>
       </c>
       <c r="H12">
-        <v>1.342276038460561</v>
+        <v>1.34227603846056</v>
       </c>
       <c r="I12">
-        <v>1.286686338982409</v>
+        <v>1.286686338982408</v>
       </c>
       <c r="J12">
-        <v>1.243876812266488</v>
+        <v>1.243876812266487</v>
       </c>
       <c r="K12">
         <v>1.210657000393799</v>
@@ -1526,22 +1526,22 @@
         <v>1.184721074705603</v>
       </c>
       <c r="M12">
-        <v>1.164372959777043</v>
+        <v>1.164372959777042</v>
       </c>
       <c r="N12">
-        <v>1.148346388804704</v>
+        <v>1.148346388804703</v>
       </c>
       <c r="O12">
-        <v>1.135684104375613</v>
+        <v>1.135684104375612</v>
       </c>
       <c r="P12">
-        <v>1.125654878206034</v>
+        <v>1.125654878206033</v>
       </c>
       <c r="Q12">
-        <v>1.117695303941519</v>
+        <v>1.117695303941518</v>
       </c>
       <c r="R12">
-        <v>1.111368187170587</v>
+        <v>1.111368187170586</v>
       </c>
       <c r="S12">
         <v>1.106332291687187</v>
@@ -1550,25 +1550,25 @@
         <v>1.102320009906727</v>
       </c>
       <c r="U12">
-        <v>1.099120663844845</v>
+        <v>1.099120663844844</v>
       </c>
       <c r="V12">
         <v>1.096567873995602</v>
       </c>
       <c r="W12">
-        <v>1.094529911690151</v>
+        <v>1.09452991169015</v>
       </c>
       <c r="X12">
         <v>1.092902269209814</v>
       </c>
       <c r="Y12">
-        <v>1.091601898099445</v>
+        <v>1.091601898099444</v>
       </c>
       <c r="Z12">
-        <v>1.090562715301092</v>
+        <v>1.090562715301091</v>
       </c>
       <c r="AA12">
-        <v>1.089732081389863</v>
+        <v>1.089732081389862</v>
       </c>
       <c r="AB12">
         <v>1.089068029797423</v>
@@ -1577,13 +1577,13 @@
         <v>1.088537079886237</v>
       </c>
       <c r="AD12">
-        <v>1.088112506337032</v>
+        <v>1.088112506337031</v>
       </c>
       <c r="AE12">
-        <v>1.087772966733402</v>
+        <v>1.087772966733401</v>
       </c>
       <c r="AF12">
-        <v>1.087501411337159</v>
+        <v>1.087501411337158</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>1.294687646522454</v>
       </c>
       <c r="C13">
-        <v>1.335384803242596</v>
+        <v>1.335384803242597</v>
       </c>
       <c r="D13">
-        <v>1.368861692714457</v>
+        <v>1.368861692714459</v>
       </c>
       <c r="E13">
-        <v>1.396246451388212</v>
+        <v>1.396246451388214</v>
       </c>
       <c r="F13">
-        <v>1.41854818429269</v>
+        <v>1.418548184292692</v>
       </c>
       <c r="G13">
-        <v>1.436645775341869</v>
+        <v>1.436645775341871</v>
       </c>
       <c r="H13">
-        <v>1.451289945192411</v>
+        <v>1.451289945192414</v>
       </c>
       <c r="I13">
-        <v>1.4631126844614</v>
+        <v>1.463112684461403</v>
       </c>
       <c r="J13">
-        <v>1.472640183208966</v>
+        <v>1.472640183208969</v>
       </c>
       <c r="K13">
-        <v>1.480306832499927</v>
+        <v>1.48030683249993</v>
       </c>
       <c r="L13">
-        <v>1.48646887934594</v>
+        <v>1.486468879345944</v>
       </c>
       <c r="M13">
-        <v>1.491416980166508</v>
+        <v>1.491416980166511</v>
       </c>
       <c r="N13">
-        <v>1.495387317349104</v>
+        <v>1.495387317349107</v>
       </c>
       <c r="O13">
-        <v>1.498571195807663</v>
+        <v>1.498571195807667</v>
       </c>
       <c r="P13">
-        <v>1.501123178690619</v>
+        <v>1.501123178690623</v>
       </c>
       <c r="Q13">
-        <v>1.503167893678432</v>
+        <v>1.503167893678435</v>
       </c>
       <c r="R13">
-        <v>1.504805670797613</v>
+        <v>1.504805670797616</v>
       </c>
       <c r="S13">
-        <v>1.506117177196932</v>
+        <v>1.506117177196935</v>
       </c>
       <c r="T13">
-        <v>1.507167205255449</v>
+        <v>1.507167205255453</v>
       </c>
       <c r="U13">
-        <v>1.508007754756564</v>
+        <v>1.508007754756568</v>
       </c>
       <c r="V13">
-        <v>1.508680531863462</v>
+        <v>1.508680531863465</v>
       </c>
       <c r="W13">
-        <v>1.509218969650796</v>
+        <v>1.5092189696508</v>
       </c>
       <c r="X13">
-        <v>1.509649858236008</v>
+        <v>1.509649858236011</v>
       </c>
       <c r="Y13">
-        <v>1.509994657677299</v>
+        <v>1.509994657677303</v>
       </c>
       <c r="Z13">
-        <v>1.510270553930293</v>
+        <v>1.510270553930297</v>
       </c>
       <c r="AA13">
-        <v>1.510491307227405</v>
+        <v>1.510491307227408</v>
       </c>
       <c r="AB13">
-        <v>1.510667933097164</v>
+        <v>1.510667933097167</v>
       </c>
       <c r="AC13">
-        <v>1.510809248663263</v>
+        <v>1.510809248663266</v>
       </c>
       <c r="AD13">
-        <v>1.510922310634035</v>
+        <v>1.510922310634038</v>
       </c>
       <c r="AE13">
-        <v>1.511012766302567</v>
+        <v>1.511012766302571</v>
       </c>
       <c r="AF13">
-        <v>1.511085134736455</v>
+        <v>1.511085134736459</v>
       </c>
     </row>
   </sheetData>
